--- a/Assets/Resources/Configs/Excel/MonsterEquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MonsterEquipConfig.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13040"/>
+    <workbookView windowWidth="19080" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterEquip" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -572,38 +570,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/Assets/Resources/Configs/Excel/MonsterEquipConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/MonsterEquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterEquip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>物装备类型</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>实际id</t>
+  </si>
   <si>
     <t>#EquipType</t>
   </si>
@@ -23,9 +35,6 @@
   </si>
   <si>
     <t>#name</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>string</t>
@@ -459,13 +468,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -492,18 +501,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -511,58 +520,72 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
